--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -458,7 +458,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -848,10 +848,10 @@
   </si>
   <si>
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
-【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageInjection_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -899,7 +899,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1005,7 +1005,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1107,7 +1107,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -1243,7 +1243,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1295,7 +1295,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1798,7 +1798,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
